--- a/Output/Project1/www/actores resistencias elementales.xlsx
+++ b/Output/Project1/www/actores resistencias elementales.xlsx
@@ -12,12 +12,11 @@
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>Fuego</t>
   </si>
@@ -395,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,11 +473,11 @@
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>COUNTIF(D2:W2,"Res")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <f>COUNTIF(D2:W2,"Deb")</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -494,6 +493,12 @@
       </c>
       <c r="J2" t="s">
         <v>10</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
@@ -503,7 +508,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B9" si="1">COUNTIF(D3:W3,"Deb")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -518,6 +523,9 @@
         <v>10</v>
       </c>
       <c r="K3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -549,11 +557,11 @@
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -568,6 +576,12 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -606,7 +620,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -622,12 +636,15 @@
       </c>
       <c r="K7" t="s">
         <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8">
         <f t="shared" si="1"/>
@@ -647,12 +664,15 @@
       </c>
       <c r="J8" t="s">
         <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
         <f t="shared" si="1"/>
@@ -669,6 +689,9 @@
       </c>
       <c r="K9" t="s">
         <v>11</v>
+      </c>
+      <c r="L9" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:23" hidden="1" x14ac:dyDescent="0.25"/>
@@ -689,6 +712,16 @@
       <c r="B13">
         <f>40/8</f>
         <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>IF(MAX(A2:A9)&gt;B13,"ALERT"," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="B14" t="str">
+        <f>IF(MAX(B2:B9)&gt;B13,"ALERT"," ")</f>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
